--- a/venv/Excel4Rips.xlsx
+++ b/venv/Excel4Rips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/SOFIIA/venv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwar\Documents\proyectosPython\Sofiia-RIPs-\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8360CF-1768-8F47-9335-6E67A79CC5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743FFF5-A9FA-4E41-951C-C7413565677C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" xr2:uid="{CBA75514-EE03-4C93-A5EB-05D8AEA4D774}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{CBA75514-EE03-4C93-A5EB-05D8AEA4D774}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="73">
   <si>
     <t>codPrestador</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>numDocumentoIdentificacionOtrosServicios</t>
+  </si>
+  <si>
+    <t>901268516-8</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -338,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -356,6 +368,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -376,9 +391,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,7 +431,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -522,7 +537,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -664,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -674,43 +689,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6DD7A4-F2E5-4A80-AE92-D501E94CD474}">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
     <col min="12" max="12" width="40.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" customWidth="1"/>
-    <col min="17" max="17" width="19.5" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" customWidth="1"/>
     <col min="19" max="19" width="29.33203125" customWidth="1"/>
-    <col min="21" max="21" width="22.5" customWidth="1"/>
-    <col min="22" max="22" width="27.1640625" customWidth="1"/>
+    <col min="21" max="21" width="22.44140625" customWidth="1"/>
+    <col min="22" max="22" width="27.109375" customWidth="1"/>
     <col min="23" max="23" width="17.33203125" customWidth="1"/>
     <col min="24" max="24" width="45.6640625" customWidth="1"/>
-    <col min="25" max="25" width="45.1640625" customWidth="1"/>
-    <col min="26" max="26" width="11.1640625" customWidth="1"/>
-    <col min="28" max="28" width="19.83203125" customWidth="1"/>
-    <col min="29" max="29" width="26.1640625" customWidth="1"/>
-    <col min="30" max="30" width="33.1640625" customWidth="1"/>
-    <col min="31" max="31" width="27.1640625" customWidth="1"/>
+    <col min="25" max="25" width="45.109375" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" customWidth="1"/>
+    <col min="28" max="28" width="19.77734375" customWidth="1"/>
+    <col min="29" max="29" width="26.109375" customWidth="1"/>
+    <col min="30" max="30" width="33.109375" customWidth="1"/>
+    <col min="31" max="31" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="5" customFormat="1" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="5" customFormat="1" ht="46.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -805,36 +820,36 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6">
+        <v>9532</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6">
+        <v>13872644</v>
+      </c>
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6">
-        <v>8</v>
-      </c>
-      <c r="I2" s="6">
-        <v>9</v>
+      <c r="H2" s="7">
+        <v>29879</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="J2" s="6">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="K2" s="6">
         <v>11</v>
@@ -900,15 +915,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -923,9 +938,9 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,9 +1018,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,9 +1074,9 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,9 +1136,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,9 +1189,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,9 +1266,9 @@
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,9 +1340,9 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1372,15 +1387,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EB933C-728B-4A47-AA97-1E8C52FE2FA6}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1392,6 +1407,11 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
